--- a/wk 3 access + excel/CHANGE STUDY, BUND EXAMPLE.xlsx
+++ b/wk 3 access + excel/CHANGE STUDY, BUND EXAMPLE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EMO" sheetId="1" r:id="rId1"/>
@@ -477,14 +477,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Comparative efficiency among solution types (BEH vs INT vs EMO)</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparing</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> solution efficiency, </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>BEH vs. INT vs EMO</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -584,11 +593,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="240371440"/>
-        <c:axId val="248186136"/>
+        <c:axId val="252566976"/>
+        <c:axId val="252564624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240371440"/>
+        <c:axId val="252566976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248186136"/>
+        <c:crossAx val="252564624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -639,7 +648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248186136"/>
+        <c:axId val="252564624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240371440"/>
+        <c:crossAx val="252566976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1286,20 +1295,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1582,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>5</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>5</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2511,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>5</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +2545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
         <v>5</v>
       </c>
@@ -2553,7 +2562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>5</v>
       </c>
@@ -2570,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>5</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
         <v>5</v>
       </c>
@@ -2604,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2621,7 +2630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>5</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>5</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
         <v>5</v>
       </c>
@@ -2689,7 +2698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>5</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>5</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
         <v>5</v>
       </c>
@@ -2740,7 +2749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
         <v>5</v>
       </c>
@@ -2757,7 +2766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
         <v>5</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
         <v>5</v>
       </c>
@@ -2808,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
         <v>5</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
         <v>5</v>
       </c>
@@ -2859,7 +2868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +2885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
         <v>5</v>
       </c>
@@ -2893,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
         <v>5</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
         <v>5</v>
       </c>
@@ -2927,7 +2936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="21" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +2953,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
         <v>5</v>
       </c>
@@ -2961,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
         <v>5</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
         <v>5</v>
       </c>
@@ -3012,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
         <v>5</v>
       </c>
@@ -3044,7 +3053,7 @@
       </c>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="21" t="s">
         <v>5</v>
       </c>
@@ -3059,7 +3068,7 @@
       </c>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="21" t="s">
         <v>5</v>
       </c>
@@ -3085,7 +3094,7 @@
   <dimension ref="C2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
